--- a/medicine/Enfance/Aladin/Aladin.xlsx
+++ b/medicine/Enfance/Aladin/Aladin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sur les autres projets Wikimedia :
@@ -516,6 +528,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -541,7 +555,9 @@
           <t>Cinéma</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Aladin et la Lampe merveilleuse (1901), un film produit par Pathé Frères
 Aladin ou la Lampe merveilleuse (1906), film français réalisé par Albert Capellani
@@ -587,7 +603,9 @@
           <t>Musique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Aladdin ou Aladin, une ouverture du compositeur danois Christian Frederik Emil Horneman, 1863, et de son opéra du même nom
 Aladdin, musique de scène (et une suite) de Carl Nielsen, 1919
@@ -625,7 +643,9 @@
           <t>Jeux vidéo</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Aladdin, jeu vidéo de plate-forme sorti en 1993 sur SNES (Super NES)
 Aladdin, jeu vidéo de plate-forme sorti en 1993 sur Mega Drive</t>
@@ -656,7 +676,9 @@
           <t>Littérature, mangas et animations</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Aladin, le héros de Magi, manga de type Shōnen sorti en 2009 et adapté en animation en octobre 2013 ;
 Aladdin, un épisode[Lequel ?] de Simsala Grimm.</t>
@@ -687,7 +709,9 @@
           <t>Autres domaines</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Aladin, village situé en Azerbaïdjan ;
 Aladin, des services du Centre de données astronomiques de Strasbourg ;
